--- a/SG_Maven_Project/TestData/UserModule.xlsx
+++ b/SG_Maven_Project/TestData/UserModule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MorningBatch_Combined\SG_Maven_Framework\SG_Maven_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MorningBatch_Combined\LocalCopy\repoJuly2024\SG_Maven_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91AC31B-00BA-47A2-919B-E3D967CC795F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C726954-CBCE-46CC-8A48-11FA0059A944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="0" windowWidth="13464" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>appURL</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>TS_102</t>
+  </si>
+  <si>
+    <t>admin1</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>12</v>
